--- a/KnowledgeGraph/data/risk.xlsx
+++ b/KnowledgeGraph/data/risk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,7 @@
     <t>产品不成立风险/募集失败风险</t>
   </si>
   <si>
-    <t>如果因募集规模低于说明书约定的最低规模或其他因素导致本产品不能成
-立的情形，客户将面临再投资风险。</t>
+    <t>如果因募集规模低于说明书约定的最低规模或其他因素导致本产品不能成立的情形，客户将面临再投资风险。</t>
   </si>
   <si>
     <t>再投资/提前终止风险</t>
@@ -102,6 +101,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -110,9 +123,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,54 +170,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,22 +192,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -217,10 +216,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,16 +230,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,49 +254,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,13 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,115 +410,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,45 +445,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,6 +490,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -554,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1024,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
